--- a/Stage 1 - Data Dictionary.xlsx
+++ b/Stage 1 - Data Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taran\Downloads\Bhasvic\Computer science A2\Coursework\Iterative devlopement\Stage 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Taran\Downloads\Computer science coursework\Coursework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F8BA59A-1BC3-45A7-8926-0C4E8BBB4BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE54C6E-2488-4C78-B938-2DF3CDB951B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="18576" xr2:uid="{A19FBD8D-7149-46E5-8715-539A274CB6C2}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{A19FBD8D-7149-46E5-8715-539A274CB6C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>class MainWindow(QMainWindow)</t>
   </si>
   <si>
-    <t>label_title</t>
-  </si>
-  <si>
     <t>QLabel</t>
   </si>
   <si>
@@ -101,18 +98,12 @@
     <t>"League of Traders"</t>
   </si>
   <si>
-    <t>label_background</t>
-  </si>
-  <si>
     <t>QPixmap object</t>
   </si>
   <si>
     <t>QPixmap("Trading.png")</t>
   </si>
   <si>
-    <t>button_start</t>
-  </si>
-  <si>
     <t>QPushButton</t>
   </si>
   <si>
@@ -122,24 +113,15 @@
     <t>"Start Game"</t>
   </si>
   <si>
-    <t>button_history</t>
-  </si>
-  <si>
     <t>"View History"</t>
   </si>
   <si>
-    <t>combo_players</t>
-  </si>
-  <si>
     <t>QComboBox</t>
   </si>
   <si>
     <t>Integer or String options</t>
   </si>
   <si>
-    <t>icon_app</t>
-  </si>
-  <si>
     <t>QIcon</t>
   </si>
   <si>
@@ -149,18 +131,12 @@
     <t>"App.png"</t>
   </si>
   <si>
-    <t>background_image</t>
-  </si>
-  <si>
     <t>QPixmap</t>
   </si>
   <si>
     <t>"Trading.png"</t>
   </si>
   <si>
-    <t>history_exists</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -218,9 +194,6 @@
     <t>button_start.clicked.connect(start_game)</t>
   </si>
   <si>
-    <t>start_game()</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
@@ -230,9 +203,6 @@
     <t>def start_game(): ...</t>
   </si>
   <si>
-    <t>view_history()</t>
-  </si>
-  <si>
     <t>def view_history(): ...</t>
   </si>
   <si>
@@ -303,13 +273,43 @@
   </si>
   <si>
     <t>If game data has been stored, it will show previous analytical data</t>
+  </si>
+  <si>
+    <t>labelTitle</t>
+  </si>
+  <si>
+    <t>labelBackground</t>
+  </si>
+  <si>
+    <t>buttonStart</t>
+  </si>
+  <si>
+    <t>buttonHistory</t>
+  </si>
+  <si>
+    <t>comboPlayers</t>
+  </si>
+  <si>
+    <t>iconApp</t>
+  </si>
+  <si>
+    <t>backgroundImage</t>
+  </si>
+  <si>
+    <t>historyExists</t>
+  </si>
+  <si>
+    <t>startGame()</t>
+  </si>
+  <si>
+    <t>viewHistory()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,20 +738,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5A7AD7-DA5A-4F8A-BB1A-E0F84B21E22C}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="23.6640625" defaultRowHeight="64.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="23.69140625" defaultRowHeight="64.849999999999994" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" customWidth="1"/>
+    <col min="2" max="2" width="15.07421875" customWidth="1"/>
+    <col min="4" max="4" width="17.23046875" customWidth="1"/>
+    <col min="5" max="5" width="43.07421875" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="64.849999999999994" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,7 +771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -822,16 +822,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -842,333 +842,333 @@
         <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="E9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="5" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="5" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="5" t="s">
+    </row>
+    <row r="18" spans="1:6" ht="64.849999999999994" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="B18" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="64.849999999999994" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
